--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem4/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem4/67/word_level_predictions_67.xlsx
@@ -1201,83 +1201,83 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Camera error AI Spot-Check failed Restart camera .</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>4</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>Camera error AI Spot-Check failed Restart camera .</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>failed</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3726,52 +3726,52 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
+      <c r="A64" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C64" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D64" t="n">
+      <c r="D64" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="E64" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="F64" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G64" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I64" t="b">
-        <v>1</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K64" t="b">
-        <v>1</v>
-      </c>
-      <c r="L64" t="inlineStr">
+      <c r="G64" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I64" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K64" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L64" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_B</t>
         </is>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G65" t="b">
@@ -3825,7 +3825,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7233,7 +7233,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G131" t="b">
@@ -7257,57 +7257,57 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="n">
+      <c r="A132" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B132" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="C132" s="2" t="inlineStr">
         <is>
           <t>off</t>
         </is>
       </c>
-      <c r="D132" t="n">
+      <c r="D132" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="E132" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="F132" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G132" t="b">
-        <v>1</v>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I132" t="b">
-        <v>1</v>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K132" t="b">
-        <v>1</v>
-      </c>
-      <c r="L132" t="inlineStr">
+      <c r="G132" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H132" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I132" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J132" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K132" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L132" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11422,156 +11422,156 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="2" t="n">
+      <c r="A212" t="n">
         <v>13</v>
       </c>
-      <c r="B212" s="2" t="inlineStr">
+      <c r="B212" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C212" s="2" t="inlineStr">
+      <c r="C212" t="inlineStr">
         <is>
           <t>Please</t>
         </is>
       </c>
-      <c r="D212" s="2" t="n">
+      <c r="D212" t="n">
         <v>5</v>
       </c>
-      <c r="E212" s="2" t="inlineStr">
+      <c r="E212" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F212" s="2" t="inlineStr">
+      <c r="F212" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G212" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I212" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J212" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K212" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L212" s="2" t="inlineStr">
+      <c r="G212" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I212" t="b">
+        <v>1</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K212" t="b">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="2" t="n">
+      <c r="A213" t="n">
         <v>13</v>
       </c>
-      <c r="B213" s="2" t="inlineStr">
+      <c r="B213" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C213" s="2" t="inlineStr">
+      <c r="C213" t="inlineStr">
         <is>
           <t>check</t>
         </is>
       </c>
-      <c r="D213" s="2" t="n">
+      <c r="D213" t="n">
         <v>6</v>
       </c>
-      <c r="E213" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F213" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G213" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H213" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I213" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J213" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K213" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L213" s="2" t="inlineStr">
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G213" t="b">
+        <v>1</v>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I213" t="b">
+        <v>1</v>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K213" t="b">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="2" t="n">
+      <c r="A214" t="n">
         <v>13</v>
       </c>
-      <c r="B214" s="2" t="inlineStr">
+      <c r="B214" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C214" s="2" t="inlineStr">
+      <c r="C214" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D214" s="2" t="n">
+      <c r="D214" t="n">
         <v>7</v>
       </c>
-      <c r="E214" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F214" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G214" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I214" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J214" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K214" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L214" s="2" t="inlineStr">
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G214" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I214" t="b">
+        <v>1</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K214" t="b">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11601,7 +11601,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G215" t="b">
@@ -11625,7 +11625,7 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11838,106 +11838,106 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="2" t="n">
+      <c r="A220" t="n">
         <v>14</v>
       </c>
-      <c r="B220" s="2" t="inlineStr">
+      <c r="B220" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C220" s="2" t="inlineStr">
+      <c r="C220" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="D220" s="2" t="n">
+      <c r="D220" t="n">
         <v>0</v>
       </c>
-      <c r="E220" s="2" t="inlineStr">
+      <c r="E220" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F220" s="2" t="inlineStr">
+      <c r="F220" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G220" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H220" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I220" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J220" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K220" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L220" s="2" t="inlineStr">
+      <c r="G220" t="b">
+        <v>1</v>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I220" t="b">
+        <v>1</v>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K220" t="b">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="2" t="n">
+      <c r="A221" t="n">
         <v>14</v>
       </c>
-      <c r="B221" s="2" t="inlineStr">
+      <c r="B221" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C221" s="2" t="inlineStr">
+      <c r="C221" t="inlineStr">
         <is>
           <t>GPS</t>
         </is>
       </c>
-      <c r="D221" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E221" s="2" t="inlineStr">
+      <c r="D221" t="n">
+        <v>1</v>
+      </c>
+      <c r="E221" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F221" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G221" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I221" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J221" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K221" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L221" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G221" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I221" t="b">
+        <v>1</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K221" t="b">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14721,81 +14721,81 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G275" t="b">
+        <v>1</v>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I275" t="b">
+        <v>1</v>
+      </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K275" t="b">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>17</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>connected</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>3</v>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G275" t="b">
-        <v>1</v>
-      </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I275" t="b">
-        <v>1</v>
-      </c>
-      <c r="J275" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K275" t="b">
-        <v>1</v>
-      </c>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B276" s="2" t="inlineStr">
-        <is>
-          <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
-        </is>
-      </c>
-      <c r="C276" s="2" t="inlineStr">
-        <is>
-          <t>connected</t>
-        </is>
-      </c>
-      <c r="D276" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E276" s="2" t="inlineStr">
+      <c r="F276" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F276" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G276" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H276" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I276" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J276" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K276" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L276" s="2" t="inlineStr">
+      <c r="G276" t="b">
+        <v>1</v>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I276" t="b">
+        <v>1</v>
+      </c>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K276" t="b">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem4/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem4/67/word_level_predictions_67.xlsx
@@ -1201,7 +1201,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G15" t="b">
@@ -1225,59 +1225,59 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" t="inlineStr">
+      <c r="A16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="2" t="inlineStr">
         <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E16" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K16" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -3726,52 +3726,52 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n">
+      <c r="A64" t="n">
         <v>4</v>
       </c>
-      <c r="B64" s="2" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C64" s="2" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D64" s="2" t="n">
+      <c r="D64" t="n">
         <v>3</v>
       </c>
-      <c r="E64" s="2" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F64" s="2" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G64" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I64" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J64" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K64" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L64" s="2" t="inlineStr">
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I64" t="b">
+        <v>1</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K64" t="b">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_B</t>
         </is>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G65" t="b">
@@ -3825,7 +3825,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -7233,81 +7233,81 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G131" t="b">
+        <v>1</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I131" t="b">
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K131" t="b">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>9</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>3</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G131" t="b">
-        <v>1</v>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I131" t="b">
-        <v>1</v>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K131" t="b">
-        <v>1</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B132" s="2" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C132" s="2" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="D132" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E132" s="2" t="inlineStr">
+      <c r="F132" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F132" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G132" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H132" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I132" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J132" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K132" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L132" s="2" t="inlineStr">
+      <c r="G132" t="b">
+        <v>1</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I132" t="b">
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K132" t="b">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11422,156 +11422,156 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="n">
+      <c r="A212" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B212" t="inlineStr">
+      <c r="B212" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr">
+      <c r="C212" s="2" t="inlineStr">
         <is>
           <t>Please</t>
         </is>
       </c>
-      <c r="D212" t="n">
+      <c r="D212" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E212" t="inlineStr">
+      <c r="E212" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
+      <c r="F212" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G212" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I212" t="b">
-        <v>1</v>
-      </c>
-      <c r="J212" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K212" t="b">
-        <v>1</v>
-      </c>
-      <c r="L212" t="inlineStr">
+      <c r="G212" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I212" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J212" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K212" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L212" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="n">
+      <c r="A213" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B213" t="inlineStr">
+      <c r="B213" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C213" t="inlineStr">
+      <c r="C213" s="2" t="inlineStr">
         <is>
           <t>check</t>
         </is>
       </c>
-      <c r="D213" t="n">
+      <c r="D213" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G213" t="b">
-        <v>1</v>
-      </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I213" t="b">
-        <v>1</v>
-      </c>
-      <c r="J213" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K213" t="b">
-        <v>1</v>
-      </c>
-      <c r="L213" t="inlineStr">
+      <c r="E213" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F213" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G213" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H213" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I213" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J213" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K213" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L213" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="n">
+      <c r="A214" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B214" t="inlineStr">
+      <c r="B214" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C214" t="inlineStr">
+      <c r="C214" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D214" t="n">
+      <c r="D214" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G214" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I214" t="b">
-        <v>1</v>
-      </c>
-      <c r="J214" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K214" t="b">
-        <v>1</v>
-      </c>
-      <c r="L214" t="inlineStr">
+      <c r="E214" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F214" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G214" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I214" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J214" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K214" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L214" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11601,7 +11601,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G215" t="b">
@@ -11625,7 +11625,7 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
@@ -11838,106 +11838,106 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="n">
+      <c r="A220" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B220" t="inlineStr">
+      <c r="B220" s="2" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C220" t="inlineStr">
+      <c r="C220" s="2" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="D220" t="n">
+      <c r="D220" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E220" t="inlineStr">
+      <c r="E220" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F220" t="inlineStr">
+      <c r="F220" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G220" t="b">
-        <v>1</v>
-      </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I220" t="b">
-        <v>1</v>
-      </c>
-      <c r="J220" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K220" t="b">
-        <v>1</v>
-      </c>
-      <c r="L220" t="inlineStr">
+      <c r="G220" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H220" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I220" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J220" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K220" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L220" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="n">
+      <c r="A221" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B221" t="inlineStr">
+      <c r="B221" s="2" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C221" t="inlineStr">
+      <c r="C221" s="2" t="inlineStr">
         <is>
           <t>GPS</t>
         </is>
       </c>
-      <c r="D221" t="n">
-        <v>1</v>
-      </c>
-      <c r="E221" t="inlineStr">
+      <c r="D221" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E221" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G221" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I221" t="b">
-        <v>1</v>
-      </c>
-      <c r="J221" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K221" t="b">
-        <v>1</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F221" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G221" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I221" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J221" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K221" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L221" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -14721,7 +14721,7 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G275" t="b">
@@ -14745,57 +14745,57 @@
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="n">
+      <c r="A276" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B276" t="inlineStr">
+      <c r="B276" s="2" t="inlineStr">
         <is>
           <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C276" t="inlineStr">
+      <c r="C276" s="2" t="inlineStr">
         <is>
           <t>connected</t>
         </is>
       </c>
-      <c r="D276" t="n">
+      <c r="D276" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E276" t="inlineStr">
+      <c r="E276" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F276" t="inlineStr">
+      <c r="F276" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G276" t="b">
-        <v>1</v>
-      </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I276" t="b">
-        <v>1</v>
-      </c>
-      <c r="J276" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K276" t="b">
-        <v>1</v>
-      </c>
-      <c r="L276" t="inlineStr">
+      <c r="G276" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H276" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I276" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J276" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K276" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L276" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
